--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8F525E-EC15-448B-83DE-4C19EA933B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384ECFE3-8CAE-4663-A4CD-4D87D9E19BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="7245" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,9 @@
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384ECFE3-8CAE-4663-A4CD-4D87D9E19BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D4DAA5-8A2D-4F62-B92F-C031246A8839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,9 @@
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D4DAA5-8A2D-4F62-B92F-C031246A8839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2742A5FF-DD0E-43C4-8D91-B47DBE08FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,7 +665,9 @@
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -685,7 +687,9 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2742A5FF-DD0E-43C4-8D91-B47DBE08FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7815A9A5-F67A-4449-9EDF-1446055B75DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -709,8 +709,12 @@
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -732,7 +736,9 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -751,7 +757,9 @@
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7815A9A5-F67A-4449-9EDF-1446055B75DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3288B1A-092E-46FD-9937-8C559DA9BF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,7 +602,9 @@
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -646,7 +648,9 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3288B1A-092E-46FD-9937-8C559DA9BF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C15E037-B797-4FB7-9E03-015946923488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="-22335" yWindow="3780" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -626,7 +626,9 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -694,7 +696,9 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -764,7 +768,9 @@
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C15E037-B797-4FB7-9E03-015946923488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191398F0-198D-4AE3-9001-E1AE25A36FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22335" yWindow="3780" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -674,7 +674,9 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191398F0-198D-4AE3-9001-E1AE25A36FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F21716-AFF9-4477-A235-725CCB66DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22335" yWindow="3780" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="510" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -749,7 +749,9 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F21716-AFF9-4477-A235-725CCB66DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A91997D-7B67-45F1-9383-37A358B543BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -605,7 +605,9 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A91997D-7B67-45F1-9383-37A358B543BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FDAB28-CCA0-45F5-A56F-92C481F6BA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,9 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FDAB28-CCA0-45F5-A56F-92C481F6BA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271B197A-C4C2-41CD-99B0-27ACBBACBBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B238A4D-7E0F-4A96-B566-1167ADC07DB2}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,7 +631,9 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -681,7 +683,9 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -705,7 +709,9 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -729,7 +735,9 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -779,7 +787,9 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271B197A-C4C2-41CD-99B0-27ACBBACBBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A823AFB-01BA-4DD4-A6C5-2EC91DFB3121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,9 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -686,7 +688,9 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A823AFB-01BA-4DD4-A6C5-2EC91DFB3121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3CF87F-D523-4C8F-BC7D-1615760DC095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -716,7 +716,9 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -742,7 +744,9 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -768,7 +772,9 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3CF87F-D523-4C8F-BC7D-1615760DC095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A52893-F4DF-4824-9E72-6E67E1566011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,9 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -634,7 +636,9 @@
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -800,7 +804,9 @@
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A52893-F4DF-4824-9E72-6E67E1566011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C8A14-6026-43BA-BDBF-9325ED5D49E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="3600" yWindow="4185" windowWidth="21600" windowHeight="11070" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -695,7 +695,9 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -779,7 +781,9 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C8A14-6026-43BA-BDBF-9325ED5D49E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E38B7D6-D71A-4E12-A308-09F34923E06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="4185" windowWidth="21600" windowHeight="11070" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,7 +611,9 @@
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -639,7 +641,9 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -667,7 +671,9 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -725,7 +731,9 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -753,7 +761,9 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -811,7 +821,9 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E38B7D6-D71A-4E12-A308-09F34923E06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADDA5D6-B5C4-4D96-B2B9-9AE24ED9B236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="4185" windowWidth="21600" windowHeight="11070" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -674,7 +674,9 @@
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -794,7 +796,9 @@
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADDA5D6-B5C4-4D96-B2B9-9AE24ED9B236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31D1A74-667D-4DE3-933A-543901503190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="4185" windowWidth="21600" windowHeight="11070" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,7 +614,9 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -644,7 +646,9 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -706,7 +710,9 @@
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -736,7 +742,9 @@
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -766,7 +774,9 @@
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -828,7 +838,9 @@
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31D1A74-667D-4DE3-933A-543901503190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F7F5FE-A554-4AE7-A352-D9FFCF31DEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="4185" windowWidth="21600" windowHeight="11070" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -809,7 +809,9 @@
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F7F5FE-A554-4AE7-A352-D9FFCF31DEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526DDE07-EAB6-475F-943F-0D6D07071307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="4185" windowWidth="21600" windowHeight="11070" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="3600" yWindow="4170" windowWidth="21330" windowHeight="11085" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,7 +617,9 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -649,7 +651,9 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -681,7 +685,9 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -713,7 +719,9 @@
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -812,7 +820,9 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -843,7 +853,9 @@
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526DDE07-EAB6-475F-943F-0D6D07071307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CF3AC0-A1AB-4AB1-8634-19CF9C52F328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="4170" windowWidth="21330" windowHeight="11085" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,9 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -654,7 +656,9 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -688,7 +692,9 @@
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -722,7 +728,9 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -753,7 +761,9 @@
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -785,8 +795,12 @@
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -856,7 +870,9 @@
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CF3AC0-A1AB-4AB1-8634-19CF9C52F328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF7EA8-D99E-4E21-AA56-FB07EAA370B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,7 +764,9 @@
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF7EA8-D99E-4E21-AA56-FB07EAA370B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CA38C-7088-4757-A3DA-7637C02E75E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -659,7 +659,9 @@
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -695,7 +697,9 @@
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CA38C-7088-4757-A3DA-7637C02E75E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92EEFE7-6B3C-4857-A75B-ABA6CD651ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -879,7 +879,9 @@
       <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92EEFE7-6B3C-4857-A75B-ABA6CD651ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C939F7B4-D632-411A-95A0-E8DB492557E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="2865" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,9 @@
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -771,7 +773,9 @@
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -807,7 +811,9 @@
       <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -843,7 +849,9 @@
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C939F7B4-D632-411A-95A0-E8DB492557E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6E13A7-C025-4C95-BDFC-F8ED0489C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2865" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -626,8 +626,12 @@
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -664,7 +668,9 @@
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -702,7 +708,9 @@
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -737,8 +745,12 @@
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -776,7 +788,9 @@
       <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -814,7 +828,9 @@
       <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -852,7 +868,9 @@
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -890,7 +908,9 @@
       <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6E13A7-C025-4C95-BDFC-F8ED0489C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9160CA9C-14CF-423A-9809-4BD04888889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2865" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,7 +671,9 @@
       <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -711,7 +713,9 @@
       <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -751,7 +755,9 @@
       <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -791,7 +797,9 @@
       <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -831,7 +839,9 @@
       <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -871,7 +881,9 @@
       <c r="K8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -911,7 +923,9 @@
       <c r="K9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9160CA9C-14CF-423A-9809-4BD04888889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E87917-3C81-4CE2-BD57-37236153BA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2865" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -632,7 +632,9 @@
       <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>

--- a/학점은행/2022 1학기/학점은행시간표2.xlsx
+++ b/학점은행/2022 1학기/학점은행시간표2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\2022 1학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E87917-3C81-4CE2-BD57-37236153BA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99370CF3-E8C3-4AD0-8C44-DAEB5B5334B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2865" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="24">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,7 +676,9 @@
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
